--- a/_09_Array2/_0913_풀이.xlsx
+++ b/_09_Array2/_0913_풀이.xlsx
@@ -4,182 +4,166 @@
   <x:fileVersion appName="HCell" lastEdited="10.0" lowestEdited="10.0" rupBuild="0.4575"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="8850" windowHeight="6150" tabRatio="599" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="8850" windowHeight="6150" tabRatio="599" activeTab="3"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="문제4" sheetId="1" r:id="rId4"/>
     <x:sheet name="문제5" sheetId="2" r:id="rId5"/>
     <x:sheet name="문제6" sheetId="3" r:id="rId6"/>
+    <x:sheet name="메모쟝" sheetId="4" r:id="rId7"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="4294967295"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+  <x:si>
+    <x:t>0,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,2</x:t>
+  </x:si>
   <x:si>
     <x:t>4,4</x:t>
   </x:si>
   <x:si>
+    <x:t>1,2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,1</x:t>
+  </x:si>
+  <x:si>
     <x:t>2,1</x:t>
   </x:si>
   <x:si>
-    <x:t>1,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,5</x:t>
+    <x:t>0,0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,1</x:t>
   </x:si>
   <x:si>
     <x:t>1,6</x:t>
   </x:si>
   <x:si>
-    <x:t>0,1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,1</x:t>
+    <x:t>2,0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,7</x:t>
   </x:si>
   <x:si>
     <x:t>0,2</x:t>
   </x:si>
   <x:si>
-    <x:t>3,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,7</x:t>
+    <x:t>4,3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7,0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>i</x:t>
+  </x:si>
+  <x:si>
+    <x:t>}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j=0</x:t>
   </x:si>
   <x:si>
     <x:t>1,3</x:t>
   </x:si>
   <x:si>
+    <x:t>0,4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6,0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3,1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5,1</x:t>
+  </x:si>
+  <x:si>
     <x:t>3,2</x:t>
   </x:si>
   <x:si>
+    <x:t>3,0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4,1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1,0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2,3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>=&gt;</x:t>
+  </x:si>
+  <x:si>
     <x:t>3,4</x:t>
   </x:si>
   <x:si>
-    <x:t>4,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>j</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6,1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1,0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3,1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>i</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5,1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>j=0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7,0</x:t>
+    <x:t>j값이 4를 넘어가면 제거 =&gt; if(j&gt;3) continue;</x:t>
   </x:si>
   <x:si>
     <x:t>i는 8번 반복하면서 숫자를 채워야 한다. 0-7 반복</x:t>
   </x:si>
   <x:si>
-    <x:t>j값이 4를 넘어가면 제거 =&gt; if(j&gt;3) continue;</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>if</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Consolas"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>(</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Consolas"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff6a3e3e"/>
-      </x:rPr>
-      <x:t>newCol</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Consolas"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> &lt; 5) {</x:t>
-    </x:r>
+    <x:t>행은 고정 열은 0 4까지증가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>행은 고영 열은 3 0까지 감소</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -243,52 +227,69 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>행은 고영 열은 3 0까지 감소</x:t>
+    <x:t>열은 고정 행은 1 3까지 증가</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>if</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Consolas"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>(</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Consolas"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff6a3e3e"/>
+      </x:rPr>
+      <x:t>newCol</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Consolas"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> &lt; 5) {</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:t>열은 고정 행은 2 1까지 감소</x:t>
   </x:si>
   <x:si>
-    <x:t>행은 고정 열은 0 4까지증가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열은 고정 행은 1 3까지 증가</x:t>
+    <x:t xml:space="preserve">j는 해결완료 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>j=0 1 2 3 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j=0 1 2 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>열(i)는 시작값과 같고 반복하면서 하나씩 감소</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변경배열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재배열</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j=0 1 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>j=0 1</x:t>
   </x:si>
   <x:si>
     <x:t>j=0 1 2 3 4 5</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">j는 해결완료 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>j=0 1 2 3 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>j=0 1 2 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현재배열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변경배열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>j=0 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>j=0 1 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>열(i)는 시작값과 같고 반복하면서 하나씩 감소</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve"> i값 j값으로 해결할수없다면 수식필요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>=&gt;</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1312,7 +1313,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9">
       <x:c r="A1" s="4" t="s">
-        <x:v>31</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B1">
         <x:v>0</x:v>
@@ -1453,21 +1454,21 @@
     </x:row>
     <x:row r="7" spans="2:2">
       <x:c r="B7" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:11">
       <x:c r="A8" s="3" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B8" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="J8" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="K8" t="s">
         <x:v>38</x:v>
-      </x:c>
-      <x:c r="B8" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="J8" s="3" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="K8" t="s">
-        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
@@ -1475,10 +1476,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C9" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="J9" t="s">
-        <x:v>40</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
@@ -1486,13 +1487,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C10" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D10" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J10" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10">
@@ -1500,10 +1501,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C11" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D11" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E11" t="s">
         <x:v>13</x:v>
@@ -1517,19 +1518,19 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C12" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D12" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E12" t="s">
-        <x:v>1</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="F12" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J12" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:20">
@@ -1540,19 +1541,19 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="D13" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E13" t="s">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F13" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="J13" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="M13" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="N13" s="5"/>
       <x:c r="O13" s="5"/>
@@ -1567,25 +1568,25 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C14" s="6" t="s">
-        <x:v>3</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D14" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E14" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F14" t="s">
-        <x:v>17</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G14" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="J14" t="s">
-        <x:v>51</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="M14" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="N14" s="5"/>
       <x:c r="O14" s="5"/>
@@ -1600,10 +1601,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C15" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D15" s="6" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E15" t="s">
         <x:v>30</x:v>
@@ -1612,13 +1613,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="G15" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="H15" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="I15" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:20">
@@ -1626,31 +1627,31 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C16" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D16" s="6" t="s">
-        <x:v>4</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E16" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F16" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="G16" s="5" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H16" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F16" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G16" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H16" s="5" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="I16" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="J16" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="M16" s="6" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="N16" s="6"/>
       <x:c r="O16" s="6"/>
@@ -1662,7 +1663,7 @@
     </x:row>
     <x:row r="17" spans="13:20">
       <x:c r="M17" s="6" t="s">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="N17" s="6"/>
       <x:c r="O17" s="6"/>
@@ -1674,7 +1675,7 @@
     </x:row>
     <x:row r="18" spans="13:20">
       <x:c r="M18" s="7" t="s">
-        <x:v>45</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="N18" s="6"/>
       <x:c r="O18" s="6"/>
@@ -1686,7 +1687,7 @@
     </x:row>
     <x:row r="19" spans="13:20">
       <x:c r="M19" s="8" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="N19" s="6"/>
       <x:c r="O19" s="6"/>
@@ -1698,7 +1699,7 @@
     </x:row>
     <x:row r="20" spans="13:20">
       <x:c r="M20" s="9" t="s">
-        <x:v>36</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="N20" s="6"/>
       <x:c r="O20" s="6"/>
@@ -1709,7 +1710,7 @@
       <x:c r="T20" s="6"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1719,7 +1720,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:N20"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <x:selection activeCell="F13" activeCellId="0" sqref="F13:F13"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1733,7 +1734,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B1" s="11">
         <x:v>0</x:v>
@@ -1771,22 +1772,22 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="H2" s="17" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="I2" s="17" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="J2" s="17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="K2" s="17" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="K2" s="17" t="s">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="L2" s="17" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="N2" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:14">
@@ -1809,13 +1810,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="H3" s="19" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="I3" s="19" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="J3" s="19" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="N3" s="11" t="s">
         <x:v>50</x:v>
@@ -1844,16 +1845,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="I4" s="21" t="s">
-        <x:v>17</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="J4" s="21" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="K4" s="21" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="K4" s="21" t="s">
-        <x:v>24</x:v>
-      </x:c>
       <x:c r="N4" s="11" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:14">
@@ -1879,10 +1880,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="I5" s="23" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="N5" s="11" t="s">
-        <x:v>48</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
@@ -1899,7 +1900,7 @@
       <x:c r="M20" s="15"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -1923,10 +1924,10 @@
   <x:sheetData>
     <x:row r="3" spans="2:8">
       <x:c r="B3" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="G3" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="H3" s="11" t="s">
         <x:v>57</x:v>
@@ -2095,16 +2096,16 @@
     </x:row>
     <x:row r="10" spans="2:6">
       <x:c r="B10" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D10" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E10" s="11" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="E10" s="11" t="s">
-        <x:v>6</x:v>
       </x:c>
       <x:c r="F10" s="11" t="s">
         <x:v>26</x:v>
@@ -2112,19 +2113,19 @@
     </x:row>
     <x:row r="11" spans="2:6">
       <x:c r="B11" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C11" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E11" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F11" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:6">
@@ -2132,13 +2133,13 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="11" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D12" s="11" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="E12" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F12" s="11" t="s">
         <x:v>30</x:v>
@@ -2146,36 +2147,36 @@
     </x:row>
     <x:row r="13" spans="2:6">
       <x:c r="B13" s="11" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C13" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D13" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E13" s="11" t="s">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F13" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:6">
       <x:c r="B14" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C14" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D14" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E14" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F14" s="11" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="13:13">
@@ -2188,7 +2189,103 @@
       <x:c r="M20" s="15"/>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet3"/>
+  <x:dimension ref="A2:M20"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="B2" activeCellId="0" sqref="B2:H4"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="4.625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="6" width="4.625" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="7" max="7" width="4.625" style="11"/>
+    <x:col min="8" max="12" width="4.625" style="11" bestFit="1" customWidth="1"/>
+    <x:col min="13" max="16384" width="4.625" style="11"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="2" spans="2:8">
+      <x:c r="B2" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C2" s="10" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="10" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F2" s="11" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="11" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H2" s="11" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="2:8">
+      <x:c r="B3" s="10" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C3" s="10" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D3" s="10" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="F3" s="11" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G3" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H3" s="11" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="2:8">
+      <x:c r="B4" s="10" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="10" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="10" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F4" s="11" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G4" s="11" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H4" s="11" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="12"/>
+      <x:c r="H8" s="12"/>
+    </x:row>
+    <x:row r="18" spans="13:13">
+      <x:c r="M18" s="13"/>
+    </x:row>
+    <x:row r="19" spans="13:13">
+      <x:c r="M19" s="14"/>
+    </x:row>
+    <x:row r="20" spans="13:13">
+      <x:c r="M20" s="15"/>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>